--- a/Cluster Data mining.xlsx
+++ b/Cluster Data mining.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nilsg\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E438CB6A-89F0-4DD8-9AEA-B23BAA3EDA08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899B0C44-323F-498A-974C-621565A05B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{684530CB-7351-47C2-9F17-26AF66B3A425}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{684530CB-7351-47C2-9F17-26AF66B3A425}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Cluster 4</t>
   </si>
   <si>
-    <t>Cluster 5</t>
-  </si>
-  <si>
     <t>Day</t>
   </si>
   <si>
@@ -87,6 +84,9 @@
   </si>
   <si>
     <t>Need to add 5 min to every time as we only count after 5min</t>
+  </si>
+  <si>
+    <t>Cluster 0</t>
   </si>
 </sst>
 </file>
@@ -94,7 +94,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -131,17 +131,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -478,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BE9ACC-9E08-4B10-93D4-5B61269702AC}">
   <dimension ref="A1:AD13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:R4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,19 +492,19 @@
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
-        <v>12</v>
-      </c>
       <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="T1" t="s">
         <v>14</v>
-      </c>
-      <c r="T1" t="s">
-        <v>15</v>
       </c>
       <c r="Z1" t="s">
         <v>0</v>
@@ -513,261 +512,261 @@
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
       <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
         <v>1</v>
       </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
       <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
         <v>3</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>4</v>
       </c>
-      <c r="L2" t="s">
-        <v>5</v>
-      </c>
       <c r="N2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" t="s">
         <v>1</v>
       </c>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
       <c r="P2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>4</v>
       </c>
-      <c r="R2" t="s">
-        <v>5</v>
-      </c>
       <c r="T2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="U2" t="s">
         <v>1</v>
       </c>
-      <c r="U2" t="s">
-        <v>2</v>
-      </c>
       <c r="V2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" t="s">
         <v>3</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>4</v>
       </c>
-      <c r="X2" t="s">
-        <v>5</v>
-      </c>
       <c r="Z2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA2" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" t="s">
-        <v>2</v>
-      </c>
       <c r="AB2" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC2" t="s">
         <v>3</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>4</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="5">
+        <v>7</v>
+      </c>
+      <c r="B3" s="4">
         <v>0.214</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>0.107</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>0.14099999999999999</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>0.13600000000000001</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>4.5999999999999999E-2</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>0.106</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <v>0.20599999999999999</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <v>0.22900000000000001</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="4">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="P3" s="5">
+      <c r="P3" s="4">
         <v>0.105</v>
       </c>
-      <c r="Q3" s="5">
+      <c r="Q3" s="4">
         <v>0.13</v>
       </c>
-      <c r="R3" s="5">
+      <c r="R3" s="4">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="T3" s="5">
+      <c r="T3" s="4">
         <v>0.23699999999999999</v>
       </c>
-      <c r="U3" s="5">
+      <c r="U3" s="4">
         <v>0.06</v>
       </c>
-      <c r="V3" s="5">
+      <c r="V3" s="4">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="W3" s="5">
+      <c r="W3" s="4">
         <v>0.13300000000000001</v>
       </c>
-      <c r="X3" s="5">
+      <c r="X3" s="4">
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="Z3" s="4">
+      <c r="Z3" s="3">
         <v>9.9055066797002198E-2</v>
       </c>
-      <c r="AA3" s="4">
+      <c r="AA3" s="3">
         <v>2.9239766081871298E-2</v>
       </c>
-      <c r="AB3" s="4">
+      <c r="AB3" s="3">
         <v>3.9094650205761299E-2</v>
       </c>
-      <c r="AC3" s="4">
+      <c r="AC3" s="3">
         <v>4.2328042328042298E-2</v>
       </c>
-      <c r="AD3" s="4">
+      <c r="AD3" s="3">
         <v>0.20957200084334801</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2</v>
-      </c>
-      <c r="C4" s="5">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
+      </c>
+      <c r="C4" s="4">
         <v>4.3230000000000004</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="4">
         <v>6.306</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="4">
         <v>9.2110000000000003</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="4">
         <v>3</v>
       </c>
-      <c r="H4" s="5">
+      <c r="H4" s="4">
         <v>4.3369999999999997</v>
       </c>
-      <c r="I4" s="5">
+      <c r="I4" s="4">
         <v>11.75</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <v>3</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <v>7</v>
       </c>
-      <c r="L4" s="5">
-        <v>2</v>
-      </c>
-      <c r="N4" s="5">
-        <v>2</v>
-      </c>
-      <c r="O4" s="5">
+      <c r="L4" s="4">
+        <v>2</v>
+      </c>
+      <c r="N4" s="4">
+        <v>2</v>
+      </c>
+      <c r="O4" s="4">
         <v>6.38</v>
       </c>
-      <c r="P4" s="5">
+      <c r="P4" s="4">
         <v>4.351</v>
       </c>
-      <c r="Q4" s="5">
+      <c r="Q4" s="4">
         <v>3</v>
       </c>
-      <c r="R4" s="5">
+      <c r="R4" s="4">
         <v>9.3330000000000002</v>
       </c>
-      <c r="T4" s="5">
-        <v>2</v>
-      </c>
-      <c r="U4" s="5">
+      <c r="T4" s="4">
+        <v>2</v>
+      </c>
+      <c r="U4" s="4">
         <v>6.7430000000000003</v>
       </c>
-      <c r="V4" s="5">
+      <c r="V4" s="4">
         <v>4.3540000000000001</v>
       </c>
-      <c r="W4" s="5">
+      <c r="W4" s="4">
         <v>3</v>
       </c>
-      <c r="X4" s="5">
+      <c r="X4" s="4">
         <v>10.227</v>
       </c>
-      <c r="Z4" s="4">
+      <c r="Z4" s="3">
         <v>3.3695014662756599</v>
       </c>
-      <c r="AA4" s="4">
+      <c r="AA4" s="3">
         <v>11.578947368421</v>
       </c>
-      <c r="AB4" s="4">
+      <c r="AB4" s="3">
         <v>5.3333333333333304</v>
       </c>
-      <c r="AC4" s="4">
+      <c r="AC4" s="3">
         <v>7.7857142857142803</v>
       </c>
-      <c r="AD4" s="4">
+      <c r="AD4" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2">
+        <v>9</v>
+      </c>
+      <c r="B5">
         <v>510</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>167</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5">
         <v>49</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5">
         <v>19</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5">
         <v>231</v>
       </c>
       <c r="H5">
@@ -833,47 +832,47 @@
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2">
+        <v>12</v>
+      </c>
+      <c r="B6">
         <f>SUM(B5:F5)</f>
         <v>976</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6">
         <f>SUM(H5:L5)</f>
         <v>1072</v>
       </c>
-      <c r="N6" s="2">
+      <c r="N6">
         <f>SUM(N5:R5)</f>
         <v>1119</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6">
         <f>SUM(T5:X5)</f>
         <v>1101</v>
       </c>
-      <c r="Z6" s="2">
+      <c r="Z6">
         <f>SUM(Z5:AD5)</f>
         <v>1037</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>16</v>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
